--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4042236.427099406</v>
+        <v>4038140.785594639</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>56.76365545758797</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>220.7467451245533</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>64.50612826256146</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>182.9774860575321</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>328.1098536917371</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>42.64489423351234</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.02073791859642</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>191.7921775186077</v>
+        <v>175.2420117460537</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>67.65708450622557</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>176.7621441121403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,10 +1660,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>179.6926686226139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>111.3213230702134</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>246.2281368349485</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>38.05096575280767</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>81.54417886827336</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>66.12869588327324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>59.66990246485271</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2845,13 +2845,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>21.69718571885169</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>40.96105405076429</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>57.8244908215239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>40.96105405076471</v>
       </c>
       <c r="W40" t="n">
-        <v>145.0635245304607</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H43" t="n">
-        <v>117.4765410832877</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>46.29306638367395</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012186</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238282</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>184.1670747424431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1184.34337792405</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>1184.34337792405</v>
+        <v>1275.288014512648</v>
       </c>
       <c r="D2" t="n">
-        <v>826.0776793172992</v>
+        <v>917.0223159058974</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>531.2340633076531</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>120.2481585180455</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>108.5838122827384</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1961.082549963983</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1961.082549963983</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1570.943217988171</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145203</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>687.024971736461</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>518.0887888085541</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>367.9721493962184</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962184</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.62037658204</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1162.502039085878</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>907.8175508799911</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>907.8175508799911</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>907.8175508799911</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>687.024971736461</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1211.708328559738</v>
+        <v>934.6665353554979</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>934.6665353554979</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>576.4008367487475</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>576.4008367487475</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.84766053555</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1211.708328559738</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4637,10 +4637,10 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1715.293511287796</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2047.363946463958</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>475.205037342667</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>475.205037342667</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0883979303312</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>673.0360657270445</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>673.0360657270445</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>673.0360657270445</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.8535021729067</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.200456328342</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C8" t="n">
-        <v>1053.237939387931</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D8" t="n">
-        <v>694.9722407811803</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E8" t="n">
-        <v>309.183988182936</v>
+        <v>952.0937546898456</v>
       </c>
       <c r="F8" t="n">
-        <v>302.2384874337326</v>
+        <v>541.1078499002381</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4810,10 +4810,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392464</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>2383.002557118212</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>2772.332236394371</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>3369.710724020923</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>3997.30868757553</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>3997.30868757553</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>4420.931837070598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,49 +5272,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191923</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191923</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.71788640035</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639637</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>701.4712640439268</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>532.5350811160199</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1439.670564122435</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1150.253394085474</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>922.2638431874569</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>701.4712640439268</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5746,28 +5746,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4585.352129708765</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>4296.276903052963</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>4041.592414847077</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3752.175244810116</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3524.185693912098</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3678.660617711126</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3192.420589669523</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4138.963291886141</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3884.278803680254</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3594.861633643293</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3594.861633643293</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3374.069054499763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6229,49 +6229,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,19 +6299,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
         <v>1373.553594266881</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3240.397708662308</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153951</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741615</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673038</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>3642.838752636078</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>3642.838752636078</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>3422.046173492547</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>486.4214942667319</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>339.5315467688215</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6779,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.955258982919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>889.0190760550122</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>738.9024366426764</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>590.9893430602833</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>444.0993955623729</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>276.9032962772529</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>135.191465119451</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.385853854706</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.396302956689</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1239.603723813159</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,49 +6919,49 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492579</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.4488110627</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3804.031641025739</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,40 +7238,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W40" t="n">
-        <v>1354.218256739386</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7496,16 +7496,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424041</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>526.5658826424041</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>526.5658826424041</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>379.6759351444937</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G43" t="n">
-        <v>212.4798358593736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7715,34 +7715,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273899</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273899</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.8158034133958</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133958</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133958</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310025</v>
+        <v>449.485266605716</v>
       </c>
       <c r="F46" t="n">
-        <v>261.012762333092</v>
+        <v>449.485266605716</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797183</v>
+        <v>282.2891673205959</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>140.577336162794</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648817</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611856</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X46" t="n">
-        <v>958.2568473871659</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>737.4642682436356</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566558</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>54.95314511566528</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>154.0169020165197</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-5.20845298070512e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.37549921168772</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.89198472948087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>106.0841272570749</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>5.909506488879487</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>179.3544845744806</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>204.6402955209708</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>101.1181252153546</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>166.0397529241844</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>40.30478226780124</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>194.3131525023041</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>211.1765892730633</v>
       </c>
       <c r="W40" t="n">
-        <v>141.4594738061303</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H43" t="n">
-        <v>22.81817176293616</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462241</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185657</v>
+        <v>34.97276993489157</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>41.54258064659419</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613289.2213126648</v>
+        <v>613289.2213126647</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613289.2213126647</v>
+        <v>613289.2213126648</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>613289.2213126648</v>
+        <v>613289.2213126647</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>613289.2213126648</v>
+        <v>613289.2213126647</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>613289.2213126646</v>
+        <v>613289.2213126648</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900058</v>
-      </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900065</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,28 +26377,28 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551165</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
@@ -26426,40 +26426,40 @@
         <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744331</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744289</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744291</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744286</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744242</v>
+      </c>
+      <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744384</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744344</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744335</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744235</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744382</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="O4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744231</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-522169.9231284639</v>
       </c>
       <c r="C6" t="n">
-        <v>592581.8604474558</v>
+        <v>592581.8604474554</v>
       </c>
       <c r="D6" t="n">
         <v>432566.3976994562</v>
       </c>
       <c r="E6" t="n">
-        <v>371884.3516669994</v>
+        <v>371536.9724126427</v>
       </c>
       <c r="F6" t="n">
-        <v>697296.8134743541</v>
+        <v>696949.4342199971</v>
       </c>
       <c r="G6" t="n">
-        <v>697296.8134743553</v>
+        <v>696949.4342199978</v>
       </c>
       <c r="H6" t="n">
-        <v>697296.8134743548</v>
+        <v>696949.4342199976</v>
       </c>
       <c r="I6" t="n">
-        <v>697296.813474355</v>
+        <v>696949.4342199978</v>
       </c>
       <c r="J6" t="n">
-        <v>529691.6356643724</v>
+        <v>529344.2564100155</v>
       </c>
       <c r="K6" t="n">
-        <v>697296.8134743546</v>
+        <v>696949.434219998</v>
       </c>
       <c r="L6" t="n">
-        <v>649002.8434661641</v>
+        <v>648655.4642118072</v>
       </c>
       <c r="M6" t="n">
-        <v>612241.7855388433</v>
+        <v>611894.4062844862</v>
       </c>
       <c r="N6" t="n">
-        <v>697296.8134743546</v>
+        <v>696949.4342199978</v>
       </c>
       <c r="O6" t="n">
-        <v>697296.813474355</v>
+        <v>696949.4342199982</v>
       </c>
       <c r="P6" t="n">
-        <v>697296.8134743547</v>
+        <v>696949.4342199981</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26801,10 +26801,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,40 +26968,40 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>244.2548971048174</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>128.4942235928597</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,19 +27590,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>37.77120993967984</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>37.16303807927045</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>364.2311515081991</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.5639154334984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>219.1295481348457</v>
+        <v>235.6797139073998</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>158.0525708828116</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30872,58 +30872,58 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.412415622466109e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.576457483073075e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496639</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,22 +32074,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286707</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>485.9276108700249</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>595.3857163736981</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q30" t="n">
-        <v>140.7358547888808</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>536.3866168795495</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>504.7812948344583</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>117.933366006583</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>352.6335057535154</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,19 +35026,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>403.6964311400519</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>393.2623022991504</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663306</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M15" t="n">
-        <v>425.4542490066523</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>351.9532034556946</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>453.2516824516798</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7540807028592577</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>405.0449047962162</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>362.64726091244</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4038140.785594639</v>
+        <v>4039901.315897427</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>97.77678596085337</v>
       </c>
       <c r="H2" t="n">
-        <v>56.76365545758797</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.50612826256146</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>265.1980833201283</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>42.64489423351234</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>159.2210638905951</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>175.2420117460537</v>
+        <v>175.2420117460519</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>82.70057996958639</v>
+        <v>82.70057996958599</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701348</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.3722917337063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983373</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1663,10 +1663,10 @@
         <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701335</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503959</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881255</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419834071</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T19" t="n">
-        <v>111.3213230702134</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>28.75188085812275</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>59.66990246485271</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456783</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>100.3801551430683</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>40.96105405076471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>105.3219429113318</v>
       </c>
       <c r="I46" t="n">
-        <v>46.29306638367395</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1644.250531453059</v>
+        <v>884.184933127857</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.288014512648</v>
+        <v>515.2224161874453</v>
       </c>
       <c r="D2" t="n">
-        <v>917.0223159058974</v>
+        <v>156.9567175806948</v>
       </c>
       <c r="E2" t="n">
-        <v>531.2340633076531</v>
+        <v>156.9567175806948</v>
       </c>
       <c r="F2" t="n">
-        <v>120.2481585180455</v>
+        <v>150.0112168314914</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5838122827384</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,13 +4357,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
@@ -4372,10 +4372,10 @@
         <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145203</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.543024838023</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959893</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554979</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C5" t="n">
-        <v>934.6665353554979</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="D5" t="n">
-        <v>576.4008367487475</v>
+        <v>701.1000442222769</v>
       </c>
       <c r="E5" t="n">
-        <v>576.4008367487475</v>
+        <v>701.1000442222769</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>290.1141394326693</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>278.4497931973623</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.26637541962</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4716,16 +4716,16 @@
         <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835252</v>
+        <v>2065.11022283525</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.14770589484</v>
+        <v>1696.147705894839</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.88200728809</v>
+        <v>1337.882007288088</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898456</v>
+        <v>952.0937546898438</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1078499002381</v>
+        <v>541.1078499002363</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875186</v>
+        <v>2841.849394875184</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899374</v>
+        <v>2451.710062899372</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4941,37 +4941,37 @@
         <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W10" t="n">
         <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168599</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362679</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192622</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277345</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453414</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453414</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998311</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.294644713843</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703131</v>
       </c>
     </row>
     <row r="20">
@@ -5743,55 +5743,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5825,22 +5825,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713843</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703131</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6056,19 +6056,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
         <v>577.3880777468471</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6314,10 +6314,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6554,10 +6554,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687895</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L36" t="n">
         <v>904.4616873845483</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7265,7 +7265,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2345.568987476151</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459586</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180517</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>449.485266605716</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E46" t="n">
-        <v>449.485266605716</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F46" t="n">
-        <v>449.485266605716</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G46" t="n">
-        <v>282.2891673205959</v>
+        <v>282.2891673205955</v>
       </c>
       <c r="H46" t="n">
-        <v>140.577336162794</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
         <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761984</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566558</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-5.20845298070512e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823187</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>44.73700564187294</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822832</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>106.0841272570749</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648084</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>166.0397529241844</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>80.6461308585763</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>34.97276993489206</v>
       </c>
       <c r="I46" t="n">
-        <v>34.97276993489157</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613289.2213126648</v>
+        <v>613289.2213126647</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>613289.2213126647</v>
+        <v>613289.2213126648</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>613289.2213126648</v>
+        <v>613289.2213126647</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642836</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642833</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900065</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.86925376999312e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.041691846127185e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819063</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309568</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744331</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744289</v>
+        <v>8727.256391744366</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744291</v>
+        <v>8727.256391744504</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744422</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26453,7 +26453,7 @@
         <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26524,46 +26524,46 @@
         <v>-522169.9231284639</v>
       </c>
       <c r="C6" t="n">
-        <v>592581.8604474554</v>
+        <v>592581.8604474558</v>
       </c>
       <c r="D6" t="n">
-        <v>432566.3976994562</v>
+        <v>432566.3976994567</v>
       </c>
       <c r="E6" t="n">
-        <v>371536.9724126427</v>
+        <v>371849.6137415636</v>
       </c>
       <c r="F6" t="n">
-        <v>696949.4342199971</v>
+        <v>697262.0755489192</v>
       </c>
       <c r="G6" t="n">
-        <v>696949.4342199978</v>
+        <v>697262.0755489189</v>
       </c>
       <c r="H6" t="n">
-        <v>696949.4342199976</v>
+        <v>697262.0755489188</v>
       </c>
       <c r="I6" t="n">
-        <v>696949.4342199978</v>
+        <v>697262.0755489193</v>
       </c>
       <c r="J6" t="n">
-        <v>529344.2564100155</v>
+        <v>529656.8977389365</v>
       </c>
       <c r="K6" t="n">
-        <v>696949.434219998</v>
+        <v>697262.0755489195</v>
       </c>
       <c r="L6" t="n">
-        <v>648655.4642118072</v>
+        <v>648968.1055407285</v>
       </c>
       <c r="M6" t="n">
-        <v>611894.4062844862</v>
+        <v>612207.0476134075</v>
       </c>
       <c r="N6" t="n">
-        <v>696949.4342199978</v>
+        <v>697262.0755489192</v>
       </c>
       <c r="O6" t="n">
-        <v>696949.4342199982</v>
+        <v>697262.0755489192</v>
       </c>
       <c r="P6" t="n">
-        <v>696949.4342199981</v>
+        <v>697262.0755489194</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26746,13 +26746,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.336567212491399e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.336567212491399e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>313.7709168121006</v>
       </c>
       <c r="H2" t="n">
-        <v>244.2548971048174</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.3258519193758</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27596,10 +27596,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>21.32491501646274</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>364.2311515081991</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>141.7974886718103</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>235.6797139073998</v>
+        <v>235.6797139074016</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>83.32522828944184</v>
+        <v>83.32522828944224</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,10 +28326,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,19 +28377,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.364895895004305e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>6.505731331876805e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28572,16 +28572,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>3.160693928805358e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.38422985443682e-13</v>
       </c>
     </row>
     <row r="23">
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31764,28 +31764,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>302.9675447508059</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496639</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31861,10 +31861,10 @@
         <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31916,7 +31916,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31931,13 +31931,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>246.9596973201445</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>246.9596973201444</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990649</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>305.1876769472509</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.933366006583</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>160.8335108287876</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663306</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35585,7 +35585,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>108.4053175402703</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>108.4053175402702</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36050,13 +36050,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770466</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>167.3462379728919</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
